--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nodal</t>
   </si>
   <si>
     <t>Acvr1b</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.772722144971196</v>
+        <v>0.8677990000000001</v>
       </c>
       <c r="H2">
-        <v>0.772722144971196</v>
+        <v>2.603397</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.56593802862181</v>
+        <v>1.879801666666667</v>
       </c>
       <c r="N2">
-        <v>1.56593802862181</v>
+        <v>5.639405</v>
       </c>
       <c r="O2">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969584</v>
       </c>
       <c r="P2">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969585</v>
       </c>
       <c r="Q2">
-        <v>1.210034992368611</v>
+        <v>1.631290006531667</v>
       </c>
       <c r="R2">
-        <v>1.210034992368611</v>
+        <v>14.681610058785</v>
       </c>
       <c r="S2">
-        <v>0.06586314881856592</v>
+        <v>0.04272383729984326</v>
       </c>
       <c r="T2">
-        <v>0.06586314881856592</v>
+        <v>0.04272383729984326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.772722144971196</v>
+        <v>0.8677990000000001</v>
       </c>
       <c r="H3">
-        <v>0.772722144971196</v>
+        <v>2.603397</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.7218735005327</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N3">
-        <v>5.7218735005327</v>
+        <v>17.409842</v>
       </c>
       <c r="O3">
-        <v>0.2406612515938902</v>
+        <v>0.2305528831469119</v>
       </c>
       <c r="P3">
-        <v>0.2406612515938902</v>
+        <v>0.230552883146912</v>
       </c>
       <c r="Q3">
-        <v>4.421418364585474</v>
+        <v>5.036081159252666</v>
       </c>
       <c r="R3">
-        <v>4.421418364585474</v>
+        <v>45.324730433274</v>
       </c>
       <c r="S3">
-        <v>0.2406612515938902</v>
+        <v>0.1318960523360137</v>
       </c>
       <c r="T3">
-        <v>0.2406612515938902</v>
+        <v>0.1318960523360138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.772722144971196</v>
+        <v>0.8677990000000001</v>
       </c>
       <c r="H4">
-        <v>0.772722144971196</v>
+        <v>2.603397</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84741506448671</v>
+        <v>4.498281</v>
       </c>
       <c r="N4">
-        <v>3.84741506448671</v>
+        <v>13.494843</v>
       </c>
       <c r="O4">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="P4">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="Q4">
-        <v>2.972982821224663</v>
+        <v>3.903603753519</v>
       </c>
       <c r="R4">
-        <v>2.972982821224663</v>
+        <v>35.132433781671</v>
       </c>
       <c r="S4">
-        <v>0.1618217747621224</v>
+        <v>0.1022362246937272</v>
       </c>
       <c r="T4">
-        <v>0.1618217747621224</v>
+        <v>0.1022362246937272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.772722144971196</v>
+        <v>0.8677990000000001</v>
       </c>
       <c r="H5">
-        <v>0.772722144971196</v>
+        <v>2.603397</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.43378021540292</v>
+        <v>4.514094000000001</v>
       </c>
       <c r="N5">
-        <v>4.43378021540292</v>
+        <v>13.542282</v>
       </c>
       <c r="O5">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931761</v>
       </c>
       <c r="P5">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931762</v>
       </c>
       <c r="Q5">
-        <v>3.426080158376996</v>
+        <v>3.917326259106001</v>
       </c>
       <c r="R5">
-        <v>3.426080158376996</v>
+        <v>35.255936331954</v>
       </c>
       <c r="S5">
-        <v>0.1864842163727938</v>
+        <v>0.1025956200763371</v>
       </c>
       <c r="T5">
-        <v>0.1864842163727938</v>
+        <v>0.1025956200763372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.772722144971196</v>
+        <v>0.8677990000000001</v>
       </c>
       <c r="H6">
-        <v>0.772722144971196</v>
+        <v>2.603397</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.572085894289023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.36802434158151</v>
+        <v>6.434522</v>
       </c>
       <c r="N6">
-        <v>6.36802434158151</v>
+        <v>19.303566</v>
       </c>
       <c r="O6">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="P6">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="Q6">
-        <v>4.920713428455652</v>
+        <v>5.583871757078001</v>
       </c>
       <c r="R6">
-        <v>4.920713428455652</v>
+        <v>50.254845813702</v>
       </c>
       <c r="S6">
-        <v>0.2678382715176572</v>
+        <v>0.1462428063050599</v>
       </c>
       <c r="T6">
-        <v>0.2678382715176572</v>
+        <v>0.1462428063050599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1549 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8677990000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.603397</v>
+      </c>
+      <c r="I7">
+        <v>0.572085894289023</v>
+      </c>
+      <c r="J7">
+        <v>0.572085894289023</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N7">
+        <v>6.123505</v>
+      </c>
+      <c r="O7">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P7">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q7">
+        <v>1.771323838498333</v>
+      </c>
+      <c r="R7">
+        <v>15.941914546485</v>
+      </c>
+      <c r="S7">
+        <v>0.04639135357804177</v>
+      </c>
+      <c r="T7">
+        <v>0.04639135357804178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1301326666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.390398</v>
+      </c>
+      <c r="I8">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="J8">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.879801666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.639405</v>
+      </c>
+      <c r="O8">
+        <v>0.07468080881969584</v>
+      </c>
+      <c r="P8">
+        <v>0.07468080881969585</v>
+      </c>
+      <c r="Q8">
+        <v>0.2446236036877778</v>
+      </c>
+      <c r="R8">
+        <v>2.20161243319</v>
+      </c>
+      <c r="S8">
+        <v>0.006406744969816055</v>
+      </c>
+      <c r="T8">
+        <v>0.006406744969816055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1301326666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.390398</v>
+      </c>
+      <c r="I9">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="J9">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N9">
+        <v>17.409842</v>
+      </c>
+      <c r="O9">
+        <v>0.2305528831469119</v>
+      </c>
+      <c r="P9">
+        <v>0.230552883146912</v>
+      </c>
+      <c r="Q9">
+        <v>0.7551963885684444</v>
+      </c>
+      <c r="R9">
+        <v>6.796767497115999</v>
+      </c>
+      <c r="S9">
+        <v>0.01977875638631953</v>
+      </c>
+      <c r="T9">
+        <v>0.01977875638631953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1301326666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.390398</v>
+      </c>
+      <c r="I10">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="J10">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.498281</v>
+      </c>
+      <c r="N10">
+        <v>13.494843</v>
+      </c>
+      <c r="O10">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="P10">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="Q10">
+        <v>0.585373301946</v>
+      </c>
+      <c r="R10">
+        <v>5.268359717514</v>
+      </c>
+      <c r="S10">
+        <v>0.01533105310023086</v>
+      </c>
+      <c r="T10">
+        <v>0.01533105310023086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.772722144971196</v>
-      </c>
-      <c r="H7">
-        <v>0.772722144971196</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.83860145594043</v>
-      </c>
-      <c r="N7">
-        <v>1.83860145594043</v>
-      </c>
-      <c r="O7">
-        <v>0.07733133693497039</v>
-      </c>
-      <c r="P7">
-        <v>0.07733133693497039</v>
-      </c>
-      <c r="Q7">
-        <v>1.420728060781453</v>
-      </c>
-      <c r="R7">
-        <v>1.420728060781453</v>
-      </c>
-      <c r="S7">
-        <v>0.07733133693497039</v>
-      </c>
-      <c r="T7">
-        <v>0.07733133693497039</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1301326666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.390398</v>
+      </c>
+      <c r="I11">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="J11">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.514094000000001</v>
+      </c>
+      <c r="N11">
+        <v>13.542282</v>
+      </c>
+      <c r="O11">
+        <v>0.1793360421931761</v>
+      </c>
+      <c r="P11">
+        <v>0.1793360421931762</v>
+      </c>
+      <c r="Q11">
+        <v>0.5874310898040002</v>
+      </c>
+      <c r="R11">
+        <v>5.286879808236001</v>
+      </c>
+      <c r="S11">
+        <v>0.01538494700829795</v>
+      </c>
+      <c r="T11">
+        <v>0.01538494700829796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1301326666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.390398</v>
+      </c>
+      <c r="I12">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="J12">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.434522</v>
+      </c>
+      <c r="N12">
+        <v>19.303566</v>
+      </c>
+      <c r="O12">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="P12">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="Q12">
+        <v>0.8373415065853335</v>
+      </c>
+      <c r="R12">
+        <v>7.536073559268001</v>
+      </c>
+      <c r="S12">
+        <v>0.02193015475391681</v>
+      </c>
+      <c r="T12">
+        <v>0.02193015475391681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1301326666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.390398</v>
+      </c>
+      <c r="I13">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="J13">
+        <v>0.08578837148488917</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.123505</v>
+      </c>
+      <c r="O13">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P13">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q13">
+        <v>0.2656226783322223</v>
+      </c>
+      <c r="R13">
+        <v>2.39060410499</v>
+      </c>
+      <c r="S13">
+        <v>0.006956715266307963</v>
+      </c>
+      <c r="T13">
+        <v>0.006956715266307964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05945766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.178373</v>
+      </c>
+      <c r="I14">
+        <v>0.03919674072836985</v>
+      </c>
+      <c r="J14">
+        <v>0.03919674072836986</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.879801666666667</v>
+      </c>
+      <c r="N14">
+        <v>5.639405</v>
+      </c>
+      <c r="O14">
+        <v>0.07468080881969584</v>
+      </c>
+      <c r="P14">
+        <v>0.07468080881969585</v>
+      </c>
+      <c r="Q14">
+        <v>0.1117686208961111</v>
+      </c>
+      <c r="R14">
+        <v>1.005917588065</v>
+      </c>
+      <c r="S14">
+        <v>0.002927244300690574</v>
+      </c>
+      <c r="T14">
+        <v>0.002927244300690576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05945766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.178373</v>
+      </c>
+      <c r="I15">
+        <v>0.03919674072836985</v>
+      </c>
+      <c r="J15">
+        <v>0.03919674072836986</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N15">
+        <v>17.409842</v>
+      </c>
+      <c r="O15">
+        <v>0.2305528831469119</v>
+      </c>
+      <c r="P15">
+        <v>0.230552883146912</v>
+      </c>
+      <c r="Q15">
+        <v>0.3450495274517777</v>
+      </c>
+      <c r="R15">
+        <v>3.105445747066</v>
+      </c>
+      <c r="S15">
+        <v>0.009036921584887659</v>
+      </c>
+      <c r="T15">
+        <v>0.009036921584887662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05945766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.178373</v>
+      </c>
+      <c r="I16">
+        <v>0.03919674072836985</v>
+      </c>
+      <c r="J16">
+        <v>0.03919674072836986</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.498281</v>
+      </c>
+      <c r="N16">
+        <v>13.494843</v>
+      </c>
+      <c r="O16">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="P16">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="Q16">
+        <v>0.267457292271</v>
+      </c>
+      <c r="R16">
+        <v>2.407115630439</v>
+      </c>
+      <c r="S16">
+        <v>0.007004764201270186</v>
+      </c>
+      <c r="T16">
+        <v>0.007004764201270188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05945766666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.178373</v>
+      </c>
+      <c r="I17">
+        <v>0.03919674072836985</v>
+      </c>
+      <c r="J17">
+        <v>0.03919674072836986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.514094000000001</v>
+      </c>
+      <c r="N17">
+        <v>13.542282</v>
+      </c>
+      <c r="O17">
+        <v>0.1793360421931761</v>
+      </c>
+      <c r="P17">
+        <v>0.1793360421931762</v>
+      </c>
+      <c r="Q17">
+        <v>0.2683974963540001</v>
+      </c>
+      <c r="R17">
+        <v>2.415577467186</v>
+      </c>
+      <c r="S17">
+        <v>0.007029388349097922</v>
+      </c>
+      <c r="T17">
+        <v>0.007029388349097923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05945766666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.178373</v>
+      </c>
+      <c r="I18">
+        <v>0.03919674072836985</v>
+      </c>
+      <c r="J18">
+        <v>0.03919674072836986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.434522</v>
+      </c>
+      <c r="N18">
+        <v>19.303566</v>
+      </c>
+      <c r="O18">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="P18">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="Q18">
+        <v>0.3825816642353334</v>
+      </c>
+      <c r="R18">
+        <v>3.443234978118</v>
+      </c>
+      <c r="S18">
+        <v>0.01001989634660117</v>
+      </c>
+      <c r="T18">
+        <v>0.01001989634660117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05945766666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.178373</v>
+      </c>
+      <c r="I19">
+        <v>0.03919674072836985</v>
+      </c>
+      <c r="J19">
+        <v>0.03919674072836986</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N19">
+        <v>6.123505</v>
+      </c>
+      <c r="O19">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P19">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q19">
+        <v>0.1213631063738889</v>
+      </c>
+      <c r="R19">
+        <v>1.092267957365</v>
+      </c>
+      <c r="S19">
+        <v>0.00317852594582234</v>
+      </c>
+      <c r="T19">
+        <v>0.003178525945822341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06435066666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.193052</v>
+      </c>
+      <c r="I20">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="J20">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.879801666666667</v>
+      </c>
+      <c r="N20">
+        <v>5.639405</v>
+      </c>
+      <c r="O20">
+        <v>0.07468080881969584</v>
+      </c>
+      <c r="P20">
+        <v>0.07468080881969585</v>
+      </c>
+      <c r="Q20">
+        <v>0.1209664904511111</v>
+      </c>
+      <c r="R20">
+        <v>1.08869841406</v>
+      </c>
+      <c r="S20">
+        <v>0.003168138489215951</v>
+      </c>
+      <c r="T20">
+        <v>0.003168138489215951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06435066666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.193052</v>
+      </c>
+      <c r="I21">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="J21">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N21">
+        <v>17.409842</v>
+      </c>
+      <c r="O21">
+        <v>0.2305528831469119</v>
+      </c>
+      <c r="P21">
+        <v>0.230552883146912</v>
+      </c>
+      <c r="Q21">
+        <v>0.3734449797537777</v>
+      </c>
+      <c r="R21">
+        <v>3.361004817784</v>
+      </c>
+      <c r="S21">
+        <v>0.009780604608352903</v>
+      </c>
+      <c r="T21">
+        <v>0.009780604608352905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.06435066666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.193052</v>
+      </c>
+      <c r="I22">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="J22">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.498281</v>
+      </c>
+      <c r="N22">
+        <v>13.494843</v>
+      </c>
+      <c r="O22">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="P22">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="Q22">
+        <v>0.289467381204</v>
+      </c>
+      <c r="R22">
+        <v>2.605206430836</v>
+      </c>
+      <c r="S22">
+        <v>0.007581213180154014</v>
+      </c>
+      <c r="T22">
+        <v>0.007581213180154015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.06435066666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.193052</v>
+      </c>
+      <c r="I23">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="J23">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.514094000000001</v>
+      </c>
+      <c r="N23">
+        <v>13.542282</v>
+      </c>
+      <c r="O23">
+        <v>0.1793360421931761</v>
+      </c>
+      <c r="P23">
+        <v>0.1793360421931762</v>
+      </c>
+      <c r="Q23">
+        <v>0.2904849582960001</v>
+      </c>
+      <c r="R23">
+        <v>2.614364624664</v>
+      </c>
+      <c r="S23">
+        <v>0.007607863743784384</v>
+      </c>
+      <c r="T23">
+        <v>0.007607863743784385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.06435066666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.193052</v>
+      </c>
+      <c r="I24">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="J24">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.434522</v>
+      </c>
+      <c r="N24">
+        <v>19.303566</v>
+      </c>
+      <c r="O24">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="P24">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="Q24">
+        <v>0.4140657803813333</v>
+      </c>
+      <c r="R24">
+        <v>3.726592023432</v>
+      </c>
+      <c r="S24">
+        <v>0.0108444721426676</v>
+      </c>
+      <c r="T24">
+        <v>0.0108444721426676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06435066666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.193052</v>
+      </c>
+      <c r="I25">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="J25">
+        <v>0.04242239123125841</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N25">
+        <v>6.123505</v>
+      </c>
+      <c r="O25">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P25">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q25">
+        <v>0.1313505430288889</v>
+      </c>
+      <c r="R25">
+        <v>1.18215488726</v>
+      </c>
+      <c r="S25">
+        <v>0.003440099067083552</v>
+      </c>
+      <c r="T25">
+        <v>0.003440099067083553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3951633333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.18549</v>
+      </c>
+      <c r="I26">
+        <v>0.2605066022664595</v>
+      </c>
+      <c r="J26">
+        <v>0.2605066022664596</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.879801666666667</v>
+      </c>
+      <c r="N26">
+        <v>5.639405</v>
+      </c>
+      <c r="O26">
+        <v>0.07468080881969584</v>
+      </c>
+      <c r="P26">
+        <v>0.07468080881969585</v>
+      </c>
+      <c r="Q26">
+        <v>0.7428286926055556</v>
+      </c>
+      <c r="R26">
+        <v>6.685458233450001</v>
+      </c>
+      <c r="S26">
+        <v>0.01945484376013</v>
+      </c>
+      <c r="T26">
+        <v>0.01945484376013001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.3951633333333334</v>
+      </c>
+      <c r="H27">
+        <v>1.18549</v>
+      </c>
+      <c r="I27">
+        <v>0.2605066022664595</v>
+      </c>
+      <c r="J27">
+        <v>0.2605066022664596</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N27">
+        <v>17.409842</v>
+      </c>
+      <c r="O27">
+        <v>0.2305528831469119</v>
+      </c>
+      <c r="P27">
+        <v>0.230552883146912</v>
+      </c>
+      <c r="Q27">
+        <v>2.293243732508889</v>
+      </c>
+      <c r="R27">
+        <v>20.63919359258</v>
+      </c>
+      <c r="S27">
+        <v>0.0600605482313381</v>
+      </c>
+      <c r="T27">
+        <v>0.06006054823133813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.3951633333333334</v>
+      </c>
+      <c r="H28">
+        <v>1.18549</v>
+      </c>
+      <c r="I28">
+        <v>0.2605066022664595</v>
+      </c>
+      <c r="J28">
+        <v>0.2605066022664596</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.498281</v>
+      </c>
+      <c r="N28">
+        <v>13.494843</v>
+      </c>
+      <c r="O28">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="P28">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="Q28">
+        <v>1.77755571423</v>
+      </c>
+      <c r="R28">
+        <v>15.99800142807</v>
+      </c>
+      <c r="S28">
+        <v>0.04655456774827913</v>
+      </c>
+      <c r="T28">
+        <v>0.04655456774827915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.3951633333333334</v>
+      </c>
+      <c r="H29">
+        <v>1.18549</v>
+      </c>
+      <c r="I29">
+        <v>0.2605066022664595</v>
+      </c>
+      <c r="J29">
+        <v>0.2605066022664596</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.514094000000001</v>
+      </c>
+      <c r="N29">
+        <v>13.542282</v>
+      </c>
+      <c r="O29">
+        <v>0.1793360421931761</v>
+      </c>
+      <c r="P29">
+        <v>0.1793360421931762</v>
+      </c>
+      <c r="Q29">
+        <v>1.783804432020001</v>
+      </c>
+      <c r="R29">
+        <v>16.05423988818</v>
+      </c>
+      <c r="S29">
+        <v>0.04671822301565873</v>
+      </c>
+      <c r="T29">
+        <v>0.04671822301565876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.3951633333333334</v>
+      </c>
+      <c r="H30">
+        <v>1.18549</v>
+      </c>
+      <c r="I30">
+        <v>0.2605066022664595</v>
+      </c>
+      <c r="J30">
+        <v>0.2605066022664596</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.434522</v>
+      </c>
+      <c r="N30">
+        <v>19.303566</v>
+      </c>
+      <c r="O30">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="P30">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="Q30">
+        <v>2.542687161926667</v>
+      </c>
+      <c r="R30">
+        <v>22.88418445734</v>
+      </c>
+      <c r="S30">
+        <v>0.06659352547713061</v>
+      </c>
+      <c r="T30">
+        <v>0.06659352547713063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.3951633333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.18549</v>
+      </c>
+      <c r="I31">
+        <v>0.2605066022664595</v>
+      </c>
+      <c r="J31">
+        <v>0.2605066022664596</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N31">
+        <v>6.123505</v>
+      </c>
+      <c r="O31">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P31">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q31">
+        <v>0.8065948824944444</v>
+      </c>
+      <c r="R31">
+        <v>7.259353942450001</v>
+      </c>
+      <c r="S31">
+        <v>0.02112489403392288</v>
+      </c>
+      <c r="T31">
+        <v>0.02112489403392289</v>
       </c>
     </row>
   </sheetData>
